--- a/jpcore-r4/feature/swg1-ライセンス・免責事項/StructureDefinition-jp-organization-prefectureno.xlsx
+++ b/jpcore-r4/feature/swg1-ライセンス・免責事項/StructureDefinition-jp-organization-prefectureno.xlsx
@@ -250,7 +250,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>都道府県番号2桁</t>
+    <t>都道府県番号2桁【詳細参照】</t>
   </si>
   <si>
     <t>都道府県番号２桁。Identifier型の拡張を使用する。
